--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H2">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02669166666666667</v>
+        <v>0.380615</v>
       </c>
       <c r="N2">
-        <v>0.08007499999999999</v>
+        <v>1.141845</v>
       </c>
       <c r="O2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="P2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="Q2">
-        <v>0.005045027505555555</v>
+        <v>0.05064234821</v>
       </c>
       <c r="R2">
-        <v>0.04540524755</v>
+        <v>0.45578113389</v>
       </c>
       <c r="S2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="T2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H3">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>14.597777</v>
       </c>
       <c r="O3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="P3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="Q3">
-        <v>0.9197150981575556</v>
+        <v>0.6474308736526667</v>
       </c>
       <c r="R3">
-        <v>8.277435883418001</v>
+        <v>5.826877862874</v>
       </c>
       <c r="S3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="T3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H4">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>12.495181</v>
       </c>
       <c r="O4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="P4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="Q4">
-        <v>0.787243607017111</v>
+        <v>0.5541779375913333</v>
       </c>
       <c r="R4">
-        <v>7.085192463154</v>
+        <v>4.987601438322</v>
       </c>
       <c r="S4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="T4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
     </row>
   </sheetData>
